--- a/アプリケーション方式設計書_2全体概要.xlsx
+++ b/アプリケーション方式設計書_2全体概要.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5696A873-A33D-4F9A-9E41-CB9997E54766}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4F6E998-19E0-42FA-A98C-00F13DD34F51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="76">
   <si>
     <t>プロジェクト名</t>
     <phoneticPr fontId="3"/>
@@ -208,23 +208,7 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>https://docs.spring.io/spring-framework/docs/5.3.x/reference/html/</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>https://docs.spring.io/spring-boot/docs/2.7.x/reference/html/</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>※非公式・有志による日本語訳</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>https://spring.pleiades.io/spring-framework/docs/5.3.x/reference/html/</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>https://spring.pleiades.io/spring-boot/docs/2.7.x/reference/html/</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -266,10 +250,6 @@
     <rPh sb="44" eb="46">
       <t>サンショウ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>https://nablarch.github.io/docs/5u21/doc/</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -428,14 +408,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>https://docs.spring.io/spring-framework/docs/5.3.x/reference/html/web.html</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>https://spring.pleiades.io/spring-framework/docs/5.3.x/reference/html/web.html</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>本システムのAPI処理方式で利用するアプリケーション・アーキテクチャはSpring Web MVCをベースとする。</t>
     <rPh sb="0" eb="1">
       <t>ホン</t>
@@ -485,14 +457,6 @@
   </si>
   <si>
     <t>Spring Batch については以下のSpring公式ドキュメント参照。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>https://docs.spring.io/spring-batch/docs/4.3.x/reference/html/</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>https://spring.pleiades.io/spring-batch/docs/4.3.x/reference/html/</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -575,10 +539,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>Liberica JDK 11</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>LTS版であり、現時点で対応しているソフトウェアが多いバージョンのため。</t>
     <rPh sb="3" eb="4">
       <t>バン</t>
@@ -599,10 +559,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>2.7.x</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>現時点の最新バージョンを利用するため。</t>
     <rPh sb="0" eb="3">
       <t>ゲンジテン</t>
@@ -617,10 +573,6 @@
   </si>
   <si>
     <t>Nablarch</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>5u21</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -698,10 +650,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>OpenJDK 11</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Spring Bootアプリケーションをコンテナ化する際にデフォルトで使用されるJDKのため。</t>
     <rPh sb="24" eb="25">
       <t>カ</t>
@@ -720,6 +668,45 @@
       <t>ウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>https://docs.spring.io/spring-framework/docs/6.1.x/reference/html/</t>
+  </si>
+  <si>
+    <t>https://docs.spring.io/spring-boot/docs/3.2.x/reference/html/</t>
+  </si>
+  <si>
+    <t>https://spring.pleiades.io/spring-framework/docs/6.1.x/reference/html/</t>
+  </si>
+  <si>
+    <t>https://spring.pleiades.io/spring-boot/docs/3.2.x/reference/html/</t>
+  </si>
+  <si>
+    <t>https://nablarch.github.io/docs/6/doc/</t>
+  </si>
+  <si>
+    <t>https://docs.spring.io/spring-framework/docs/6.1.x/reference/html/web.html</t>
+  </si>
+  <si>
+    <t>https://spring.pleiades.io/spring-framework/docs/6.1.x/reference/html/web.html</t>
+  </si>
+  <si>
+    <t>Liberica JDK 17</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>OpenJDK 17</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>3.2.x</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>https://docs.spring.io/spring-batch/reference/5.1/index.html</t>
+  </si>
+  <si>
+    <t>https://spring.pleiades.io/spring-batch/reference/5.1/index.html</t>
   </si>
 </sst>
 </file>
@@ -987,7 +974,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1081,45 +1068,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1128,24 +1076,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1182,6 +1112,69 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -2622,7 +2615,7 @@
               <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t> JDK 11</a:t>
+            <a:t> JDK 17</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="900">
@@ -3412,80 +3405,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>34546</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>99700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>106649</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>133455</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="161" name="正方形/長方形 160">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A1000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="20043632">
-          <a:off x="2520571" y="1928500"/>
-          <a:ext cx="4767928" cy="1748255"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="9600">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>SAMPLE</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="9600">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>78471</xdr:colOff>
       <xdr:row>65</xdr:row>
@@ -4200,7 +4119,7 @@
               <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>JDK 11</a:t>
+            <a:t>JDK 17</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="900">
@@ -4749,7 +4668,7 @@
               <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t> JDK 11</a:t>
+            <a:t> JDK 17</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="900">
@@ -6286,80 +6205,6 @@
             </a:solidFill>
             <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>125656</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>64029</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>200315</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>80383</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="162" name="正方形/長方形 161">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A2000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="20043632">
-          <a:off x="3164131" y="7464954"/>
-          <a:ext cx="4770484" cy="2588104"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="9600">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>SAMPLE</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="9600">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
           </a:endParaRPr>
         </a:p>
       </xdr:txBody>
@@ -15834,137 +15679,137 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="31" t="s">
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
-      <c r="O1" s="33"/>
-      <c r="P1" s="44" t="s">
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="52"/>
+      <c r="O1" s="53"/>
+      <c r="P1" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="Q1" s="45"/>
-      <c r="R1" s="34" t="s">
+      <c r="Q1" s="32"/>
+      <c r="R1" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="S1" s="35"/>
-      <c r="T1" s="35"/>
-      <c r="U1" s="35"/>
-      <c r="V1" s="35"/>
-      <c r="W1" s="35"/>
-      <c r="X1" s="36"/>
-      <c r="Y1" s="44" t="s">
+      <c r="S1" s="55"/>
+      <c r="T1" s="55"/>
+      <c r="U1" s="55"/>
+      <c r="V1" s="55"/>
+      <c r="W1" s="55"/>
+      <c r="X1" s="56"/>
+      <c r="Y1" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="Z1" s="46"/>
-      <c r="AA1" s="47"/>
-      <c r="AB1" s="48"/>
-      <c r="AC1" s="48"/>
-      <c r="AD1" s="48"/>
-      <c r="AE1" s="49"/>
-      <c r="AF1" s="50"/>
-      <c r="AG1" s="51"/>
-      <c r="AH1" s="51"/>
-      <c r="AI1" s="52"/>
+      <c r="Z1" s="33"/>
+      <c r="AA1" s="57"/>
+      <c r="AB1" s="58"/>
+      <c r="AC1" s="58"/>
+      <c r="AD1" s="58"/>
+      <c r="AE1" s="59"/>
+      <c r="AF1" s="48"/>
+      <c r="AG1" s="49"/>
+      <c r="AH1" s="49"/>
+      <c r="AI1" s="50"/>
     </row>
     <row r="2" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="32"/>
-      <c r="O2" s="33"/>
-      <c r="P2" s="56" t="s">
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52"/>
+      <c r="N2" s="52"/>
+      <c r="O2" s="53"/>
+      <c r="P2" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="Q2" s="57"/>
-      <c r="R2" s="37" t="s">
+      <c r="Q2" s="38"/>
+      <c r="R2" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="S2" s="38"/>
-      <c r="T2" s="38"/>
-      <c r="U2" s="38"/>
-      <c r="V2" s="38"/>
-      <c r="W2" s="38"/>
-      <c r="X2" s="39"/>
-      <c r="Y2" s="44" t="s">
+      <c r="S2" s="61"/>
+      <c r="T2" s="61"/>
+      <c r="U2" s="61"/>
+      <c r="V2" s="61"/>
+      <c r="W2" s="61"/>
+      <c r="X2" s="62"/>
+      <c r="Y2" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="Z2" s="46"/>
-      <c r="AA2" s="47"/>
-      <c r="AB2" s="48"/>
-      <c r="AC2" s="48"/>
-      <c r="AD2" s="48"/>
-      <c r="AE2" s="49"/>
-      <c r="AF2" s="50"/>
-      <c r="AG2" s="51"/>
-      <c r="AH2" s="51"/>
-      <c r="AI2" s="52"/>
+      <c r="Z2" s="33"/>
+      <c r="AA2" s="57"/>
+      <c r="AB2" s="58"/>
+      <c r="AC2" s="58"/>
+      <c r="AD2" s="58"/>
+      <c r="AE2" s="59"/>
+      <c r="AF2" s="48"/>
+      <c r="AG2" s="49"/>
+      <c r="AH2" s="49"/>
+      <c r="AI2" s="50"/>
     </row>
     <row r="3" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="58"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
-      <c r="J3" s="43"/>
-      <c r="K3" s="43"/>
-      <c r="L3" s="43"/>
-      <c r="M3" s="43"/>
-      <c r="N3" s="43"/>
-      <c r="O3" s="43"/>
-      <c r="P3" s="60"/>
-      <c r="Q3" s="61"/>
-      <c r="R3" s="40"/>
-      <c r="S3" s="41"/>
-      <c r="T3" s="41"/>
-      <c r="U3" s="41"/>
-      <c r="V3" s="41"/>
-      <c r="W3" s="41"/>
-      <c r="X3" s="42"/>
-      <c r="Y3" s="60" t="s">
+      <c r="B3" s="39"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="66"/>
+      <c r="J3" s="66"/>
+      <c r="K3" s="66"/>
+      <c r="L3" s="66"/>
+      <c r="M3" s="66"/>
+      <c r="N3" s="66"/>
+      <c r="O3" s="66"/>
+      <c r="P3" s="41"/>
+      <c r="Q3" s="42"/>
+      <c r="R3" s="63"/>
+      <c r="S3" s="64"/>
+      <c r="T3" s="64"/>
+      <c r="U3" s="64"/>
+      <c r="V3" s="64"/>
+      <c r="W3" s="64"/>
+      <c r="X3" s="65"/>
+      <c r="Y3" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="Z3" s="62"/>
-      <c r="AA3" s="47"/>
-      <c r="AB3" s="48"/>
-      <c r="AC3" s="48"/>
-      <c r="AD3" s="48"/>
-      <c r="AE3" s="49"/>
-      <c r="AF3" s="50"/>
-      <c r="AG3" s="51"/>
-      <c r="AH3" s="51"/>
-      <c r="AI3" s="52"/>
+      <c r="Z3" s="43"/>
+      <c r="AA3" s="57"/>
+      <c r="AB3" s="58"/>
+      <c r="AC3" s="58"/>
+      <c r="AD3" s="58"/>
+      <c r="AE3" s="59"/>
+      <c r="AF3" s="48"/>
+      <c r="AG3" s="49"/>
+      <c r="AH3" s="49"/>
+      <c r="AI3" s="50"/>
     </row>
     <row r="4" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -16005,14 +15850,14 @@
     <row r="16" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="17" spans="1:2" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="18" spans="1:2" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="63"/>
+      <c r="A18" s="44"/>
     </row>
     <row r="19" spans="1:2" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="20" spans="1:2" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="21" spans="1:2" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="22" spans="1:2" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="23" spans="1:2" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="63"/>
+      <c r="B23" s="44"/>
     </row>
     <row r="24" spans="1:2" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="25" spans="1:2" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -16021,20 +15866,20 @@
     <row r="28" spans="1:2" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="29" spans="1:2" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="30" spans="1:2" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B30" s="63"/>
+      <c r="B30" s="44"/>
     </row>
     <row r="31" spans="1:2" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="32" spans="1:2" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="33" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="34" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D34" s="63"/>
-      <c r="F34" s="63"/>
+      <c r="D34" s="44"/>
+      <c r="F34" s="44"/>
     </row>
     <row r="35" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B35" s="63"/>
+      <c r="B35" s="44"/>
     </row>
     <row r="36" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B36" s="63"/>
+      <c r="B36" s="44"/>
     </row>
     <row r="37" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="38" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -16106,7 +15951,7 @@
         <v>2.3.1.</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
     </row>
     <row r="77" spans="3:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -16115,7 +15960,7 @@
         <v>2.3.1.1.</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
     </row>
     <row r="78" spans="3:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -16148,32 +15993,32 @@
     </row>
     <row r="83" spans="3:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C83" s="1"/>
-      <c r="F83" s="64" t="s">
-        <v>23</v>
+      <c r="F83" s="45" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="84" spans="3:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C84" s="1"/>
-      <c r="F84" s="64" t="s">
-        <v>24</v>
+      <c r="F84" s="45" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="85" spans="3:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C85" s="1"/>
       <c r="F85" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="86" spans="3:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C86" s="1"/>
-      <c r="F86" s="64" t="s">
-        <v>26</v>
+      <c r="F86" s="45" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="87" spans="3:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C87" s="1"/>
-      <c r="F87" s="64" t="s">
-        <v>27</v>
+      <c r="F87" s="45" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="88" spans="3:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -16183,19 +16028,19 @@
       <c r="C89" s="1"/>
       <c r="E89" s="1"/>
       <c r="F89" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="90" spans="3:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C90" s="1"/>
       <c r="F90" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="91" spans="3:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C91" s="1"/>
-      <c r="F91" s="64" t="s">
-        <v>30</v>
+      <c r="F91" s="46" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="92" spans="3:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -16209,28 +16054,28 @@
         <v>2.3.1.2.</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="94" spans="3:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
       <c r="F94" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="95" spans="3:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
       <c r="F95" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="96" spans="3:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
       <c r="F96" s="2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="97" spans="3:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -16241,14 +16086,14 @@
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
       <c r="F98" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="99" spans="3:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
-      <c r="F99" s="64" t="s">
-        <v>35</v>
+      <c r="F99" s="45" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="100" spans="3:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -16259,7 +16104,7 @@
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
       <c r="F101" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="102" spans="3:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -16270,7 +16115,7 @@
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
       <c r="G103" s="18" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H103" s="20"/>
       <c r="I103" s="20"/>
@@ -16278,7 +16123,7 @@
       <c r="K103" s="20"/>
       <c r="L103" s="22"/>
       <c r="M103" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="N103" s="20"/>
       <c r="O103" s="20"/>
@@ -16305,7 +16150,7 @@
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
       <c r="G104" s="19" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H104" s="21"/>
       <c r="I104" s="21"/>
@@ -16313,7 +16158,7 @@
       <c r="K104" s="21"/>
       <c r="L104" s="23"/>
       <c r="M104" s="25" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="N104" s="26"/>
       <c r="O104" s="26"/>
@@ -16340,7 +16185,7 @@
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
       <c r="G105" s="19" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H105" s="21"/>
       <c r="I105" s="21"/>
@@ -16348,7 +16193,7 @@
       <c r="K105" s="21"/>
       <c r="L105" s="23"/>
       <c r="M105" s="25" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="N105" s="26"/>
       <c r="O105" s="26"/>
@@ -16375,7 +16220,7 @@
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
       <c r="G106" s="19" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H106" s="21"/>
       <c r="I106" s="21"/>
@@ -16383,7 +16228,7 @@
       <c r="K106" s="21"/>
       <c r="L106" s="23"/>
       <c r="M106" s="25" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="N106" s="26"/>
       <c r="O106" s="26"/>
@@ -16417,42 +16262,42 @@
         <v>2.3.2.</v>
       </c>
       <c r="E108" s="24" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
     </row>
     <row r="109" spans="3:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
       <c r="E109" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="110" spans="3:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
       <c r="E110" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="111" spans="3:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
-      <c r="E111" s="64" t="s">
-        <v>45</v>
+      <c r="E111" s="45" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="112" spans="3:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
       <c r="E112" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="113" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
-      <c r="E113" s="64" t="s">
-        <v>46</v>
+      <c r="E113" s="45" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="114" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -16466,21 +16311,21 @@
         <v>2.3.3.</v>
       </c>
       <c r="E115" s="24" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
     </row>
     <row r="116" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
       <c r="E116" s="2" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="117" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
       <c r="E117" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="118" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -16493,42 +16338,42 @@
         <v>2.3.4.</v>
       </c>
       <c r="E119" s="28" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
     </row>
     <row r="120" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
       <c r="E120" s="2" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="121" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
       <c r="E121" s="2" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="122" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
-      <c r="E122" s="64" t="s">
-        <v>51</v>
+      <c r="E122" s="45" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="123" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
       <c r="E123" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="124" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
-      <c r="E124" s="64" t="s">
-        <v>52</v>
+      <c r="E124" s="45" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="125" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -16543,7 +16388,7 @@
         <v>2.4.</v>
       </c>
       <c r="D126" s="4" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="E126" s="4"/>
       <c r="F126" s="4"/>
@@ -16586,7 +16431,7 @@
         <v>2.4.1.</v>
       </c>
       <c r="E127" s="4" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="F127" s="4"/>
       <c r="G127" s="4"/>
@@ -16662,7 +16507,7 @@
       <c r="C129" s="3"/>
       <c r="D129" s="5"/>
       <c r="E129" s="4" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="F129" s="4"/>
       <c r="G129" s="4"/>
@@ -16701,7 +16546,7 @@
       <c r="C130" s="3"/>
       <c r="D130" s="5"/>
       <c r="E130" s="4" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="F130" s="4"/>
       <c r="G130" s="4"/>
@@ -16777,19 +16622,19 @@
       <c r="C132" s="3"/>
       <c r="D132" s="5"/>
       <c r="E132" s="6" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="F132" s="7"/>
       <c r="G132" s="8"/>
       <c r="H132" s="6" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="I132" s="7"/>
       <c r="J132" s="7"/>
       <c r="K132" s="7"/>
       <c r="L132" s="8"/>
       <c r="M132" s="6" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="N132" s="7"/>
       <c r="O132" s="7"/>
@@ -16820,19 +16665,19 @@
       <c r="C133" s="3"/>
       <c r="D133" s="5"/>
       <c r="E133" s="9" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="F133" s="10"/>
       <c r="G133" s="11"/>
       <c r="H133" s="9" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="I133" s="10"/>
       <c r="J133" s="10"/>
       <c r="K133" s="10"/>
       <c r="L133" s="11"/>
       <c r="M133" s="9" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="N133" s="10"/>
       <c r="O133" s="10"/>
@@ -16871,7 +16716,7 @@
       <c r="K134" s="4"/>
       <c r="L134" s="13"/>
       <c r="M134" s="12" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="N134" s="4"/>
       <c r="O134" s="4"/>
@@ -16905,14 +16750,14 @@
       <c r="F135" s="30"/>
       <c r="G135" s="13"/>
       <c r="H135" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I135" s="10"/>
       <c r="J135" s="10"/>
       <c r="K135" s="10"/>
       <c r="L135" s="11"/>
       <c r="M135" s="9" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="N135" s="10"/>
       <c r="O135" s="10"/>
@@ -16951,7 +16796,7 @@
       <c r="K136" s="4"/>
       <c r="L136" s="13"/>
       <c r="M136" s="12" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="N136" s="4"/>
       <c r="O136" s="4"/>
@@ -16982,19 +16827,19 @@
       <c r="C137" s="3"/>
       <c r="D137" s="5"/>
       <c r="E137" s="9" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="F137" s="10"/>
       <c r="G137" s="11"/>
       <c r="H137" s="9" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="I137" s="10"/>
       <c r="J137" s="10"/>
       <c r="K137" s="10"/>
       <c r="L137" s="11"/>
       <c r="M137" s="9" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="N137" s="10"/>
       <c r="O137" s="10"/>
@@ -17062,19 +16907,19 @@
       <c r="C139" s="3"/>
       <c r="D139" s="5"/>
       <c r="E139" s="9" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="F139" s="10"/>
       <c r="G139" s="11"/>
-      <c r="H139" s="9" t="s">
-        <v>66</v>
+      <c r="H139" s="47">
+        <v>6</v>
       </c>
       <c r="I139" s="10"/>
       <c r="J139" s="10"/>
       <c r="K139" s="10"/>
       <c r="L139" s="11"/>
       <c r="M139" s="9" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="N139" s="10"/>
       <c r="O139" s="10"/>

--- a/アプリケーション方式設計書_2全体概要.xlsx
+++ b/アプリケーション方式設計書_2全体概要.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4F6E998-19E0-42FA-A98C-00F13DD34F51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE1A35A7-DD57-4874-9721-6F1CD50F8A3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -670,25 +670,13 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>https://docs.spring.io/spring-framework/docs/6.1.x/reference/html/</t>
-  </si>
-  <si>
     <t>https://docs.spring.io/spring-boot/docs/3.2.x/reference/html/</t>
-  </si>
-  <si>
-    <t>https://spring.pleiades.io/spring-framework/docs/6.1.x/reference/html/</t>
   </si>
   <si>
     <t>https://spring.pleiades.io/spring-boot/docs/3.2.x/reference/html/</t>
   </si>
   <si>
     <t>https://nablarch.github.io/docs/6/doc/</t>
-  </si>
-  <si>
-    <t>https://docs.spring.io/spring-framework/docs/6.1.x/reference/html/web.html</t>
-  </si>
-  <si>
-    <t>https://spring.pleiades.io/spring-framework/docs/6.1.x/reference/html/web.html</t>
   </si>
   <si>
     <t>Liberica JDK 17</t>
@@ -707,6 +695,18 @@
   </si>
   <si>
     <t>https://spring.pleiades.io/spring-batch/reference/5.1/index.html</t>
+  </si>
+  <si>
+    <t>https://docs.spring.io/spring-framework/reference/6.1/</t>
+  </si>
+  <si>
+    <t>https://spring.pleiades.io/spring-framework/reference/6.1/</t>
+  </si>
+  <si>
+    <t>https://docs.spring.io/spring-framework/reference/6.1/web.html</t>
+  </si>
+  <si>
+    <t>https://spring.pleiades.io/spring-framework/reference/6.1/web.html</t>
   </si>
 </sst>
 </file>
@@ -15994,13 +15994,13 @@
     <row r="83" spans="3:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C83" s="1"/>
       <c r="F83" s="45" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
     </row>
     <row r="84" spans="3:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C84" s="1"/>
       <c r="F84" s="45" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="85" spans="3:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -16012,13 +16012,13 @@
     <row r="86" spans="3:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C86" s="1"/>
       <c r="F86" s="45" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
     </row>
     <row r="87" spans="3:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C87" s="1"/>
       <c r="F87" s="45" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="88" spans="3:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -16040,7 +16040,7 @@
     <row r="91" spans="3:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C91" s="1"/>
       <c r="F91" s="46" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="92" spans="3:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -16283,7 +16283,7 @@
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
       <c r="E111" s="45" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
     </row>
     <row r="112" spans="3:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -16297,7 +16297,7 @@
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
       <c r="E113" s="45" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="114" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -16359,7 +16359,7 @@
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
       <c r="E122" s="45" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="123" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -16373,7 +16373,7 @@
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
       <c r="E124" s="45" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="125" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -16670,7 +16670,7 @@
       <c r="F133" s="10"/>
       <c r="G133" s="11"/>
       <c r="H133" s="9" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="I133" s="10"/>
       <c r="J133" s="10"/>
@@ -16750,7 +16750,7 @@
       <c r="F135" s="30"/>
       <c r="G135" s="13"/>
       <c r="H135" s="9" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="I135" s="10"/>
       <c r="J135" s="10"/>
@@ -16832,7 +16832,7 @@
       <c r="F137" s="10"/>
       <c r="G137" s="11"/>
       <c r="H137" s="9" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="I137" s="10"/>
       <c r="J137" s="10"/>
